--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q+nbzI+dRUyhxZOY5hKZT9NcAlcFCZHLVeMJMBdHgpw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="udYd2N88BqaB0T9qnm17R4XZAG4dNn+1yXNzoQpQH6w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
   <si>
     <t>data</t>
   </si>
@@ -103,15 +103,6 @@
   </si>
   <si>
     <t>14:45</t>
-  </si>
-  <si>
-    <t>20:26</t>
-  </si>
-  <si>
-    <t>20:35</t>
-  </si>
-  <si>
-    <t>21:17</t>
   </si>
   <si>
     <t>21:23</t>
@@ -1348,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="3">
-        <v>2489.0</v>
+        <v>2476.33</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>6</v>
@@ -1374,74 +1365,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2">
-        <v>45201.0</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2589.0</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2">
-        <v>45201.0</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2476.33</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2">
-        <v>45201.0</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2476.33</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2">
-        <v>45201.0</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2589.0</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1"/>
@@ -2377,10 +2304,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1798,6 +1798,52 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2486.01</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,6 +1844,52 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2563.32</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>21:16</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,52 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2552</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1936,6 +1936,75 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2527.32</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2527.32</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2663</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,6 +2005,190 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2573.32</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2663</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2576</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3384</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2899</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2189,6 +2189,236 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3349.01</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20:52</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>3339.99</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20:53</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3339.99</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20:43</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20:44</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2419,6 +2419,144 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3177.32</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3176.33</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2599</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3176.33</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2599</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,6 +2557,144 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3006.33</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2599</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22:02</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2579</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22:03</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2625</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2625</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2695,6 +2695,52 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2686.33</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2625</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,6 +2741,52 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2686</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2625</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/forerunner_255s.xlsx
+++ b/assets/forerunner_255s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,6 +2787,98 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>20:39</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2625</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2607.01</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2399</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>mercado livre</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
